--- a/flowchart.xlsx
+++ b/flowchart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCOS\Desktop\yun\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE911FF9-B8DB-4B55-8757-F02F581E36D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8994"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
@@ -23,8 +24,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>aaaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,7 +112,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="正方形/長方形 69"/>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -171,7 +187,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="フローチャート: 端子 72"/>
+        <xdr:cNvPr id="73" name="フローチャート: 端子 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -226,7 +248,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="フローチャート: 判断 73"/>
+        <xdr:cNvPr id="74" name="フローチャート: 判断 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -281,7 +309,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="直線矢印コネクタ 75"/>
+        <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="73" idx="2"/>
           <a:endCxn id="70" idx="0"/>
@@ -334,7 +368,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="直線矢印コネクタ 80"/>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="70" idx="2"/>
           <a:endCxn id="74" idx="0"/>
@@ -387,7 +427,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="カギ線コネクタ 99"/>
+        <xdr:cNvPr id="100" name="カギ線コネクタ 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="74" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -439,7 +485,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="カギ線コネクタ 101"/>
+        <xdr:cNvPr id="102" name="カギ線コネクタ 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="74" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -491,7 +543,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+        <xdr:cNvPr id="103" name="正方形/長方形 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -553,7 +611,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+        <xdr:cNvPr id="104" name="正方形/長方形 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -615,7 +679,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="106" name="直線矢印コネクタ 105"/>
+        <xdr:cNvPr id="106" name="直線矢印コネクタ 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="103" idx="2"/>
           <a:endCxn id="104" idx="0"/>
@@ -668,7 +738,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+        <xdr:cNvPr id="107" name="正方形/長方形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -730,7 +806,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="直線矢印コネクタ 109"/>
+        <xdr:cNvPr id="110" name="直線矢印コネクタ 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="104" idx="2"/>
           <a:endCxn id="107" idx="0"/>
@@ -783,7 +865,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="正方形/長方形 116"/>
+        <xdr:cNvPr id="117" name="正方形/長方形 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -862,7 +950,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="正方形/長方形 117"/>
+        <xdr:cNvPr id="118" name="正方形/長方形 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -924,7 +1018,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="直線矢印コネクタ 120"/>
+        <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="118" idx="2"/>
           <a:endCxn id="117" idx="0"/>
@@ -977,7 +1077,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="フローチャート: 判断 121"/>
+        <xdr:cNvPr id="122" name="フローチャート: 判断 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1040,7 +1146,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="直線矢印コネクタ 123"/>
+        <xdr:cNvPr id="124" name="直線矢印コネクタ 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="117" idx="2"/>
           <a:endCxn id="122" idx="0"/>
@@ -1093,7 +1205,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+        <xdr:cNvPr id="125" name="正方形/長方形 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1155,7 +1273,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="127" name="直線矢印コネクタ 126"/>
+        <xdr:cNvPr id="127" name="直線矢印コネクタ 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="107" idx="2"/>
           <a:endCxn id="125" idx="0"/>
@@ -1208,7 +1332,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="正方形/長方形 127"/>
+        <xdr:cNvPr id="128" name="正方形/長方形 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1270,7 +1400,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="カギ線コネクタ 130"/>
+        <xdr:cNvPr id="131" name="カギ線コネクタ 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="122" idx="1"/>
           <a:endCxn id="128" idx="0"/>
@@ -1323,7 +1459,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="135" name="カギ線コネクタ 134"/>
+        <xdr:cNvPr id="135" name="カギ線コネクタ 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="122" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -1378,7 +1520,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="140" name="直線矢印コネクタ 139"/>
+        <xdr:cNvPr id="140" name="直線矢印コネクタ 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1428,7 +1576,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="143" name="直線矢印コネクタ 142"/>
+        <xdr:cNvPr id="143" name="直線矢印コネクタ 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="128" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -1480,7 +1634,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="フローチャート: 判断 143"/>
+        <xdr:cNvPr id="144" name="フローチャート: 判断 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1535,7 +1695,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="146" name="カギ線コネクタ 145"/>
+        <xdr:cNvPr id="146" name="カギ線コネクタ 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1585,7 +1751,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="149" name="カギ線コネクタ 148"/>
+        <xdr:cNvPr id="149" name="カギ線コネクタ 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="144" idx="1"/>
           <a:endCxn id="73" idx="1"/>
@@ -1635,7 +1807,13 @@
     <xdr:ext cx="563231" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="テキスト ボックス 150"/>
+        <xdr:cNvPr id="151" name="テキスト ボックス 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1687,7 +1865,13 @@
     <xdr:ext cx="810094" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="テキスト ボックス 151"/>
+        <xdr:cNvPr id="152" name="テキスト ボックス 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1739,7 +1923,13 @@
     <xdr:ext cx="1009507" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="テキスト ボックス 152"/>
+        <xdr:cNvPr id="153" name="テキスト ボックス 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1791,7 +1981,13 @@
     <xdr:ext cx="1120820" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="テキスト ボックス 153"/>
+        <xdr:cNvPr id="154" name="テキスト ボックス 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2098,17 +2294,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="5" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>